--- a/ExcelRead/ExcelRead4.xlsx
+++ b/ExcelRead/ExcelRead4.xlsx
@@ -4,19 +4,29 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="11040" windowHeight="6420" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="jei" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Jegatheeshwaran" sheetId="4" r:id="rId4"/>
+    <sheet name="Jegatheesh" sheetId="5" r:id="rId5"/>
+    <sheet name="Jegatheeshupdated" r:id="rId9" sheetId="6"/>
+    <sheet name="letsc" r:id="rId10" sheetId="7"/>
+    <sheet name="one" r:id="rId11" sheetId="8"/>
+    <sheet name="Friday march" r:id="rId12" sheetId="9"/>
+    <sheet name="Friday " r:id="rId13" sheetId="10"/>
+    <sheet name="Hello " r:id="rId14" sheetId="11"/>
+    <sheet name="onetwo " r:id="rId15" sheetId="12"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1:K20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>Student name</t>
   </si>
@@ -154,12 +164,19 @@
   </si>
   <si>
     <t>sjwaran1088@gmail.com</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>java</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -512,10 +529,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -719,18 +736,60 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -751,7 +810,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -767,4 +826,112 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>